--- a/Misc/SEO/Article.xlsx
+++ b/Misc/SEO/Article.xlsx
@@ -41,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,21 +55,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -78,8 +78,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,14 +96,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,8 +117,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,74 +193,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +223,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,163 +355,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +441,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -456,197 +514,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,14 +664,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,25 +1028,26 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.7" customWidth="1"/>
-    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="37.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1043,10 +1055,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
